--- a/src/predicciones/holt_winters/producto_64.xlsx
+++ b/src/predicciones/holt_winters/producto_64.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,1089 +404,1089 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44930</v>
       </c>
       <c r="B2">
-        <v>1.298669632389655</v>
+        <v>1.674488920633191</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44931</v>
       </c>
       <c r="B3">
-        <v>1.375133011196501</v>
+        <v>1.613921369013487</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44933</v>
       </c>
       <c r="B4">
-        <v>1.276780107879555</v>
+        <v>1.307894247914146</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44938</v>
       </c>
       <c r="B5">
-        <v>1.21957307337099</v>
+        <v>1.200062902790834</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44941</v>
       </c>
       <c r="B6">
-        <v>1.197866023060079</v>
+        <v>1.350353562402389</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44950</v>
       </c>
       <c r="B7">
-        <v>1.179769604543927</v>
+        <v>1.429904997248743</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44951</v>
       </c>
       <c r="B8">
-        <v>1.195398729838919</v>
+        <v>1.546244350385285</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44953</v>
       </c>
       <c r="B9">
-        <v>1.314404959545581</v>
+        <v>1.669236462484973</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44959</v>
       </c>
       <c r="B10">
-        <v>1.390868338352427</v>
+        <v>1.608668910865269</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44961</v>
       </c>
       <c r="B11">
-        <v>1.292515435035481</v>
+        <v>1.302641789765928</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44973</v>
       </c>
       <c r="B12">
-        <v>1.235308400526915</v>
+        <v>1.194810444642616</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44979</v>
       </c>
       <c r="B13">
-        <v>1.213601350216005</v>
+        <v>1.345101104254171</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44983</v>
       </c>
       <c r="B14">
-        <v>1.195504931699852</v>
+        <v>1.424652539100526</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44984</v>
       </c>
       <c r="B15">
-        <v>1.211134056994845</v>
+        <v>1.540991892237068</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44987</v>
       </c>
       <c r="B16">
-        <v>1.330140286701507</v>
+        <v>1.663984004336755</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44991</v>
       </c>
       <c r="B17">
-        <v>1.406603665508352</v>
+        <v>1.603416452717051</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45002</v>
       </c>
       <c r="B18">
-        <v>1.308250762191406</v>
+        <v>1.29738933161771</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45003</v>
       </c>
       <c r="B19">
-        <v>1.251043727682841</v>
+        <v>1.189557986494398</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45007</v>
       </c>
       <c r="B20">
-        <v>1.22933667737193</v>
+        <v>1.339848646105953</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45012</v>
       </c>
       <c r="B21">
-        <v>1.211240258855778</v>
+        <v>1.419400080952308</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45013</v>
       </c>
       <c r="B22">
-        <v>1.22686938415077</v>
+        <v>1.53573943408885</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45014</v>
       </c>
       <c r="B23">
-        <v>1.345875613857432</v>
+        <v>1.658731546188538</v>
       </c>
       <c r="C23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45020</v>
       </c>
       <c r="B24">
-        <v>1.422338992664278</v>
+        <v>1.598163994568833</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45025</v>
       </c>
       <c r="B25">
-        <v>1.323986089347332</v>
+        <v>1.292136873469493</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45026</v>
       </c>
       <c r="B26">
-        <v>1.266779054838767</v>
+        <v>1.18430552834618</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45041</v>
       </c>
       <c r="B27">
-        <v>1.245072004527856</v>
+        <v>1.334596187957736</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45052</v>
       </c>
       <c r="B28">
-        <v>1.226975586011703</v>
+        <v>1.41414762280409</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45064</v>
       </c>
       <c r="B29">
-        <v>1.242604711306696</v>
+        <v>1.530486975940632</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45065</v>
       </c>
       <c r="B30">
-        <v>1.361610941013358</v>
+        <v>1.65347908804032</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45071</v>
       </c>
       <c r="B31">
-        <v>1.438074319820204</v>
+        <v>1.592911536420616</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45078</v>
       </c>
       <c r="B32">
-        <v>1.339721416503257</v>
+        <v>1.286884415321275</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45085</v>
       </c>
       <c r="B33">
-        <v>1.282514381994692</v>
+        <v>1.179053070197963</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45087</v>
       </c>
       <c r="B34">
-        <v>1.260807331683781</v>
+        <v>1.329343729809518</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45088</v>
       </c>
       <c r="B35">
-        <v>1.242710913167629</v>
+        <v>1.408895164655873</v>
       </c>
       <c r="C35">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45094</v>
       </c>
       <c r="B36">
-        <v>1.258340038462621</v>
+        <v>1.525234517792414</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45095</v>
       </c>
       <c r="B37">
-        <v>1.377346268169283</v>
+        <v>1.648226629892102</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45104</v>
       </c>
       <c r="B38">
-        <v>1.453809646976129</v>
+        <v>1.587659078272398</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45105</v>
       </c>
       <c r="B39">
-        <v>1.355456743659183</v>
+        <v>1.281631957173057</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45108</v>
       </c>
       <c r="B40">
-        <v>1.298249709150618</v>
+        <v>1.173800612049745</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45112</v>
       </c>
       <c r="B41">
-        <v>1.276542658839707</v>
+        <v>1.3240912716613</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45115</v>
       </c>
       <c r="B42">
-        <v>1.258446240323554</v>
+        <v>1.403642706507655</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45116</v>
       </c>
       <c r="B43">
-        <v>1.274075365618547</v>
+        <v>1.519982059644197</v>
       </c>
       <c r="C43">
         <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45129</v>
       </c>
       <c r="B44">
-        <v>1.393081595325209</v>
+        <v>1.642974171743884</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45131</v>
       </c>
       <c r="B45">
-        <v>1.469544974132055</v>
+        <v>1.58240662012418</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45134</v>
       </c>
       <c r="B46">
-        <v>1.371192070815108</v>
+        <v>1.276379499024839</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45135</v>
       </c>
       <c r="B47">
-        <v>1.313985036306543</v>
+        <v>1.168548153901527</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45137</v>
       </c>
       <c r="B48">
-        <v>1.292277985995632</v>
+        <v>1.318838813513082</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45142</v>
       </c>
       <c r="B49">
-        <v>1.27418156747948</v>
+        <v>1.398390248359437</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45143</v>
       </c>
       <c r="B50">
-        <v>1.289810692774473</v>
+        <v>1.514729601495979</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45144</v>
       </c>
       <c r="B51">
-        <v>1.408816922481134</v>
+        <v>1.637721713595667</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45150</v>
       </c>
       <c r="B52">
-        <v>1.48528030128798</v>
+        <v>1.577154161975962</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45151</v>
       </c>
       <c r="B53">
-        <v>1.386927397971034</v>
+        <v>1.271127040876622</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45152</v>
       </c>
       <c r="B54">
-        <v>1.329720363462469</v>
+        <v>1.163295695753309</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45157</v>
       </c>
       <c r="B55">
-        <v>1.308013313151558</v>
+        <v>1.313586355364865</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45161</v>
       </c>
       <c r="B56">
-        <v>1.289916894635406</v>
+        <v>1.393137790211219</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45167</v>
       </c>
       <c r="B57">
-        <v>1.305546019930398</v>
+        <v>1.509477143347761</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45169</v>
       </c>
       <c r="B58">
-        <v>1.42455224963706</v>
+        <v>1.632469255447449</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45171</v>
       </c>
       <c r="B59">
-        <v>1.501015628443906</v>
+        <v>1.571901703827745</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45172</v>
       </c>
       <c r="B60">
-        <v>1.40266272512696</v>
+        <v>1.265874582728404</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45175</v>
       </c>
       <c r="B61">
-        <v>1.345455690618394</v>
+        <v>1.158043237605092</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45181</v>
       </c>
       <c r="B62">
-        <v>1.323748640307484</v>
+        <v>1.308333897216647</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45183</v>
       </c>
       <c r="B63">
-        <v>1.305652221791331</v>
+        <v>1.387885332063002</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45190</v>
       </c>
       <c r="B64">
-        <v>1.321281347086324</v>
+        <v>1.504224685199543</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45192</v>
       </c>
       <c r="B65">
-        <v>1.440287576792986</v>
+        <v>1.627216797299231</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45195</v>
       </c>
       <c r="B66">
-        <v>1.516750955599831</v>
+        <v>1.566649245679527</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45196</v>
       </c>
       <c r="B67">
-        <v>1.418398052282885</v>
+        <v>1.260622124580186</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45201</v>
       </c>
       <c r="B68">
-        <v>1.36119101777432</v>
+        <v>1.152790779456874</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45203</v>
       </c>
       <c r="B69">
-        <v>1.339483967463409</v>
+        <v>1.303081439068429</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45205</v>
       </c>
       <c r="B70">
-        <v>1.321387548947257</v>
+        <v>1.382632873914784</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45206</v>
       </c>
       <c r="B71">
-        <v>1.337016674242249</v>
+        <v>1.498972227051326</v>
       </c>
       <c r="C71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45207</v>
       </c>
       <c r="B72">
-        <v>1.456022903948911</v>
+        <v>1.621964339151013</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45218</v>
       </c>
       <c r="B73">
-        <v>1.532486282755757</v>
+        <v>1.561396787531309</v>
       </c>
       <c r="C73">
         <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45224</v>
       </c>
       <c r="B74">
-        <v>1.434133379438811</v>
+        <v>1.255369666431968</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45229</v>
       </c>
       <c r="B75">
-        <v>1.376926344930245</v>
+        <v>1.147538321308656</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45230</v>
       </c>
       <c r="B76">
-        <v>1.355219294619335</v>
+        <v>1.297828980920211</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45233</v>
       </c>
       <c r="B77">
-        <v>1.337122876103182</v>
+        <v>1.377380415766566</v>
       </c>
       <c r="C77">
         <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45234</v>
       </c>
       <c r="B78">
-        <v>1.352752001398175</v>
+        <v>1.493719768903108</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45239</v>
       </c>
       <c r="B79">
-        <v>1.471758231104837</v>
+        <v>1.616711881002796</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45256</v>
       </c>
       <c r="B80">
-        <v>1.548221609911682</v>
+        <v>1.556144329383091</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45257</v>
       </c>
       <c r="B81">
-        <v>1.449868706594736</v>
+        <v>1.250117208283751</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45261</v>
       </c>
       <c r="B82">
-        <v>1.392661672086171</v>
+        <v>1.142285863160438</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45265</v>
       </c>
       <c r="B83">
-        <v>1.37095462177526</v>
+        <v>1.292576522771994</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45282</v>
       </c>
       <c r="B84">
-        <v>1.352858203259108</v>
+        <v>1.372127957618348</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45289</v>
       </c>
       <c r="B85">
-        <v>1.3684873285541</v>
+        <v>1.48846731075489</v>
       </c>
       <c r="C85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45291</v>
       </c>
       <c r="B86">
-        <v>1.487493558260762</v>
+        <v>1.611459422854578</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="1">
-        <v>85</v>
+      <c r="A87" s="2">
+        <v>45297</v>
       </c>
       <c r="B87">
-        <v>1.563956937067608</v>
+        <v>1.550891871234874</v>
       </c>
       <c r="C87">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="1">
-        <v>86</v>
+      <c r="A88" s="2">
+        <v>45298</v>
       </c>
       <c r="B88">
-        <v>1.465604033750662</v>
+        <v>1.244864750135533</v>
       </c>
       <c r="C88">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="1">
-        <v>87</v>
+      <c r="A89" s="2">
+        <v>45299</v>
       </c>
       <c r="B89">
-        <v>1.408396999242096</v>
+        <v>1.137033405012221</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="1">
-        <v>88</v>
+      <c r="A90" s="2">
+        <v>45301</v>
       </c>
       <c r="B90">
-        <v>1.386689948931186</v>
+        <v>1.287324064623776</v>
       </c>
       <c r="C90">
         <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="1">
-        <v>89</v>
+      <c r="A91" s="2">
+        <v>45305</v>
       </c>
       <c r="B91">
-        <v>1.368593530415033</v>
+        <v>1.366875499470131</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="1">
-        <v>90</v>
+      <c r="A92" s="2">
+        <v>45307</v>
       </c>
       <c r="B92">
-        <v>1.384222655710026</v>
+        <v>1.483214852606672</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="1">
-        <v>91</v>
+      <c r="A93" s="2">
+        <v>45309</v>
       </c>
       <c r="B93">
-        <v>1.503228885416688</v>
+        <v>1.60620696470636</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="1">
-        <v>92</v>
+      <c r="A94" s="2">
+        <v>45317</v>
       </c>
       <c r="B94">
-        <v>1.579692264223533</v>
+        <v>1.545639413086656</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="1">
-        <v>93</v>
+      <c r="A95" s="2">
+        <v>45330</v>
       </c>
       <c r="B95">
-        <v>1.481339360906587</v>
+        <v>1.239612291987315</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="1">
-        <v>94</v>
+      <c r="A96" s="2">
+        <v>45334</v>
       </c>
       <c r="B96">
-        <v>1.424132326398022</v>
+        <v>1.131780946864003</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="1">
-        <v>95</v>
+      <c r="A97" s="2">
+        <v>45336</v>
       </c>
       <c r="B97">
-        <v>1.402425276087111</v>
+        <v>1.282071606475558</v>
       </c>
       <c r="C97">
         <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="1">
-        <v>96</v>
+      <c r="A98" s="2">
+        <v>45340</v>
       </c>
       <c r="B98">
-        <v>1.384328857570959</v>
+        <v>1.361623041321913</v>
       </c>
       <c r="C98">
         <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99" s="1">
-        <v>97</v>
+      <c r="A99" s="2">
+        <v>45342</v>
       </c>
       <c r="B99">
-        <v>1.399957982865951</v>
+        <v>1.477962394458455</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="1">
-        <v>98</v>
+      <c r="A100" s="2">
+        <v>45344</v>
       </c>
       <c r="B100">
-        <v>1.518964212572613</v>
+        <v>1.600954506558143</v>
       </c>
       <c r="C100">
         <v>1</v>
